--- a/tl/S00029.MES.BIN.xlsx
+++ b/tl/S00029.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF8F8C-D0B0-43C1-A4A2-5328139CA7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEFC102-9689-428D-852E-CA3DD41A8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCDCDC"/>
         <bgColor rgb="FFDCDCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBEBE"/>
+        <bgColor rgb="FFBEBEBE"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,11 +383,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,34 +781,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -831,34 +845,34 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -895,34 +909,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -959,34 +973,34 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1023,34 +1037,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1087,34 +1101,34 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1151,34 +1165,34 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1215,34 +1229,34 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1279,34 +1293,34 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1343,34 +1357,34 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1407,34 +1421,34 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1471,34 +1485,34 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1535,34 +1549,34 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1599,34 +1613,34 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1663,34 +1677,34 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1727,34 +1741,34 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1791,34 +1805,34 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1855,34 +1869,34 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1919,34 +1933,34 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1983,34 +1997,34 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00029.MES.BIN.xlsx
+++ b/tl/S00029.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEFC102-9689-428D-852E-CA3DD41A8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D716E96-470F-41C9-838C-CBBDA65E59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="86">
   <si>
     <t>Status</t>
   </si>
@@ -273,18 +273,6 @@
   </si>
   <si>
     <t>Well, time for me to head back too.</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
   </si>
 </sst>
 </file>
@@ -704,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,10 +1192,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1268,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1300,10 +1288,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1396,10 +1384,10 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -1428,10 +1416,10 @@
         <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -1460,10 +1448,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1492,10 +1480,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -1588,10 +1576,10 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -1652,10 +1640,10 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1716,10 +1704,10 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -1748,10 +1736,10 @@
         <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -1780,10 +1768,10 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -1812,10 +1800,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -1844,10 +1832,10 @@
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -1876,10 +1864,10 @@
         <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -1897,134 +1885,6 @@
         <v>9</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00029.MES.BIN.xlsx
+++ b/tl/S00029.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D716E96-470F-41C9-838C-CBBDA65E59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D17FA40-4A53-41B4-BC22-A7F74931676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00029.MES.BIN" sheetId="1" r:id="rId1"/>

--- a/tl/S00029.MES.BIN.xlsx
+++ b/tl/S00029.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D17FA40-4A53-41B4-BC22-A7F74931676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB32767-A921-4191-977D-2ABA7F0C8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="19005" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00029.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
   <si>
     <t>Status</t>
   </si>
@@ -50,7 +50,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>After finishing class, Yuki and I set off on their way home.</t>
+    <t>After finishing class, Yuki and I head home.</t>
   </si>
   <si>
     <t>3</t>
@@ -59,7 +59,7 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>"Yuki, we'll be back to work again tomorrow, huh? It's gonna be tough..."</t>
+    <t>Yuki, you have to work again tomorrow, right? That's tough…</t>
   </si>
   <si>
     <t>5</t>
@@ -71,49 +71,52 @@
     <t>Yuki</t>
   </si>
   <si>
-    <t>"Thanks, Touya. But I'm actually feeling pretty energized after seeing everyone today."</t>
+    <t>Thanks, Touya-kun. …But, I'm feeling a bit better today since I got to see everyone.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>"Yeah."</t>
+    <t>Yeah, I know what you mean.</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>When I said, Yuki smiled contentedly.</t>
+    <t>When I say that, Yuki smiles happily.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>"Are you busy later today, Touya?"</t>
+    <t>Are you busy after this, Touya-kun?</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>"Umm... not really busy, but tomorrow, I have this part-time job...</t>
+    <t>Well… I'm not busy today, but tomorrow I have work, you know, at my part-time job…</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>"Oh, I see. That's tough, Touya-kun."</t>
+    <t>Ah, I see. …That's tough for you, Touya-kun.</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Not as tough as Yuki's.</t>
+    <t>Not as tough for me as it is for you, Yuki.</t>
+  </si>
+  <si>
+    <t>Not as tough as for you, Yuki.</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>"Are you going to 'Echoes' again?"</t>
+    <t>Working at "&lt;c4Echoes&gt;" again?</t>
   </si>
   <si>
     <t>21</t>
@@ -125,154 +128,157 @@
     <t>23</t>
   </si>
   <si>
-    <t>"Echoes" is the cafe that Yuki taught us about when we were in high school,</t>
+    <t>"Echoes" is a coffee shop that Yuki told me about before she debuted,</t>
+  </si>
+  <si>
+    <t>Break the "in high school" onto the next line</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>before she debuted.</t>
+    <t>back when we were in high school.</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>It's a small, inconspicuous shop, but it's become like a gathering spot for young people aiming to become singers, talents, and celebrities. Sometimes, people associated with TV stations or young professional celebrities even show up.</t>
+    <t>It's a small, inconspicuous shop, but it's become a gathering place for young people aspiring to be singers, actors, and entertainers, with sometimes even TV station staff and young professional entertainers showing up.</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Alright, let's go there for fun when our work is done...</t>
+    <t>Then, how about we hang out there when you're done working…</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Like this.</t>
+    <t>Just like that.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>"Yeah... I would have been fine if I wasn't so tired."</t>
+    <t>Yeah. …if I'm not too tired.</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>"...That's true. If you had gone when you were too busy, Touya-kun, it would have been tough."</t>
+    <t>…That's fair. If we went when you're really busy, it would be tough for you, Touya-kun.</t>
+  </si>
+  <si>
+    <t>…I see. If we went when you're really busy, it would be tough for you, Touya-kun.</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>"Not me, it's Yuki."</t>
-  </si>
-  <si>
-    <t>I think this is more "I'm not the one who's so busy that you have to worry"</t>
+    <t>Not for me. For you, Yuki.</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>"Me...?"</t>
+    <t>Me…?</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>"I'm okay. I mean... I was always okay."</t>
+    <t>I'll be fine. Geez…. I've always been fine, haven't I?</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>We both used to go to high school and a vocational school, so the only time we could meet outside of holidays was at that cafe.</t>
+    <t>Back then, Yuki was attending both high school and a vocational school, so the only time we could meet outside of weekends was at that coffee shop.</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>We wanted to spend any time we could together, so we often went there.</t>
+    <t>We went there pretty frequently because we wanted to spend as much time together as possible.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>"Hmm?"</t>
+    <t>…Hm?</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>...Nowadays, with us both going to the same college and having moved away. ...And Yuki having debuted and started to gain public attention, we have to hold back those feelings.</t>
+    <t>…Of course, now that the two of us have enrolled in the same university, have moved, and Yuki has made her debut and gained some popularity with the general public, I try to suppress those feelings.</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>I feel like I could keep pampering Yuki or myself forever if I give in.</t>
+    <t>...I feel like if Yuki or I started to depend on each other too much, we would keep doing so indefinitely.</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>It's nothing.</t>
+    <t>…It's nothing.</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>Even if it creates a slight wall between us, there's nothing to be done.</t>
+    <t>Even if that creates a small barrier between the two of us, there's nothing we can do about it.</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>"Maybe there's something we can do about it..."</t>
+    <t>I'll figure something out…</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>Before I knew it, the words came out of my mouth.</t>
+    <t>I say this without thinking.</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>"Huh...?"</t>
+    <t>Eh…?</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>"It's okay, don't worry about it."</t>
+    <t>Okay. I believe you.</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>It's unclear whether Yuki understood or not, but she smiled and said it.</t>
+    <t>Whether or not she understood, Yuki says that with a smile.</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>"Alright then, Touya-kun. See you tomorrow."</t>
+    <t>Well then, Touya-kun. See you tomorrow.</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>She leaves...</t>
+    <t>And just like that, she was gone….</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>Well, time for me to head back too.</t>
+    <t>Alright, I should head home, too.</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1029,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -1044,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1061,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1076,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1093,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1108,10 +1116,10 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>9</v>
@@ -1125,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1140,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1157,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1172,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1189,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -1204,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1221,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1236,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1253,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1268,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1285,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1297,10 +1305,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -1317,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1332,10 +1340,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -1349,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1364,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1381,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -1396,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1413,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1428,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1445,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1460,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1477,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -1492,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1509,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1524,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1541,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1556,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1573,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1588,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -1605,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -1620,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -1637,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1652,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1669,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -1684,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -1701,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -1716,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -1733,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>16</v>
@@ -1748,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -1765,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1780,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -1797,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>16</v>
@@ -1812,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -1829,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1844,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -1861,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -1876,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
